--- a/Core_cities_geography.xlsx
+++ b/Core_cities_geography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dimka/Desktop/HSA network design/TNDP_Russia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E07AA1-1570-EB49-80BC-5A6B76B17367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F44DDD-5586-C545-B95A-4934A42C5D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="1120" windowWidth="27240" windowHeight="16440" xr2:uid="{6B62B656-80E0-3846-A5DE-87765A67B4C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>DME</t>
   </si>
@@ -59,30 +59,6 @@
     <t>VVO</t>
   </si>
   <si>
-    <t>Domodedovo International Airport</t>
-  </si>
-  <si>
-    <t>Irkutsk Airport</t>
-  </si>
-  <si>
-    <t>Kazan International Airport</t>
-  </si>
-  <si>
-    <t>Pulkovo Airport</t>
-  </si>
-  <si>
-    <t>Tolmachevo Airport</t>
-  </si>
-  <si>
-    <t>Sheremetyevo International Airport</t>
-  </si>
-  <si>
-    <t>Vnukovo International Airport</t>
-  </si>
-  <si>
-    <t>Vladivostok International Airport</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
@@ -93,13 +69,70 @@
   </si>
   <si>
     <t>5015 </t>
+  </si>
+  <si>
+    <t>55.7522</t>
+  </si>
+  <si>
+    <t>37.6156</t>
+  </si>
+  <si>
+    <t>Irkutsk</t>
+  </si>
+  <si>
+    <t>Kazan</t>
+  </si>
+  <si>
+    <t>Pulkovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladivostok </t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Novosibirsk</t>
+  </si>
+  <si>
+    <t>Vladivostok</t>
+  </si>
+  <si>
+    <t>52.2978</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 104.296</t>
+  </si>
+  <si>
+    <t>55.7887</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49.1221</t>
+  </si>
+  <si>
+    <t>59.9386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30.3141</t>
+  </si>
+  <si>
+    <t>55.0415</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82.9346</t>
+  </si>
+  <si>
+    <t>43.1056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 131.874</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +144,18 @@
       <sz val="12"/>
       <color rgb="FFCE9178"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -134,15 +179,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +507,13 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G1" sqref="G1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
@@ -493,106 +543,106 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G4">
-        <v>55.408798220000001</v>
-      </c>
-      <c r="H4">
-        <v>52.268001560000002</v>
-      </c>
-      <c r="I4">
-        <v>55.606201169999999</v>
-      </c>
-      <c r="J4">
-        <v>59.8003006</v>
-      </c>
-      <c r="K4">
-        <v>55.012599950000002</v>
-      </c>
-      <c r="L4">
-        <v>55.972599000000002</v>
-      </c>
-      <c r="M4">
-        <v>55.591499329999998</v>
-      </c>
-      <c r="N4">
-        <v>43.398998259999999</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="25" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G5">
-        <v>37.906299590000003</v>
-      </c>
-      <c r="H5">
-        <v>104.3889999</v>
-      </c>
-      <c r="I5">
-        <v>49.278701779999999</v>
-      </c>
-      <c r="J5">
-        <v>30.262500760000002</v>
-      </c>
-      <c r="K5">
-        <v>82.650703429999993</v>
-      </c>
-      <c r="L5">
-        <v>37.4146</v>
-      </c>
-      <c r="M5">
-        <v>37.26150131</v>
-      </c>
-      <c r="N5">
-        <v>132.14799500000001</v>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -626,16 +676,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>55.408798220000001</v>
-      </c>
-      <c r="E7">
-        <v>37.906299590000003</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
       <c r="F7">
         <v>12700000</v>
@@ -653,7 +703,7 @@
         <v>650</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L7" s="1">
         <v>10</v>
@@ -665,21 +715,21 @@
         <v>9288</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>52.268001560000002</v>
-      </c>
-      <c r="E8">
-        <v>104.3889999</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
       <c r="F8">
         <v>620000</v>
@@ -694,7 +744,7 @@
         <v>3530</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1">
         <v>1850</v>
@@ -709,21 +759,21 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>55.606201169999999</v>
-      </c>
-      <c r="E9">
-        <v>49.278701779999999</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
       <c r="F9">
         <v>1300000</v>
@@ -753,21 +803,21 @@
         <v>7313</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>59.8003006</v>
-      </c>
-      <c r="E10">
-        <v>30.262500760000002</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
       <c r="F10">
         <v>5600000</v>
@@ -776,7 +826,7 @@
         <v>650</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1">
         <v>1322</v>
@@ -797,27 +847,27 @@
         <v>6544</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>55.012599950000002</v>
-      </c>
-      <c r="E11">
-        <v>82.650703429999993</v>
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
       </c>
       <c r="F11">
         <v>1600000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1">
         <v>1850</v>
@@ -832,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N11" s="1">
         <v>5957</v>
@@ -846,16 +896,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>55.972599000000002</v>
-      </c>
-      <c r="E12">
-        <v>37.4146</v>
       </c>
       <c r="F12">
         <v>12700000</v>
@@ -873,7 +923,7 @@
         <v>650</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -882,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -890,16 +940,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>55.591499329999998</v>
-      </c>
-      <c r="E13">
-        <v>37.26150131</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
       </c>
       <c r="F13">
         <v>12700000</v>
@@ -917,7 +967,7 @@
         <v>650</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L13" s="1">
         <v>10</v>
@@ -926,24 +976,24 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>43.398998259999999</v>
-      </c>
-      <c r="E14">
-        <v>132.14799500000001</v>
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
       </c>
       <c r="F14">
         <v>600000</v>
@@ -964,10 +1014,10 @@
         <v>5957</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>

--- a/Core_cities_geography.xlsx
+++ b/Core_cities_geography.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dimka/Desktop/HSA network design/TNDP_Russia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F44DDD-5586-C545-B95A-4934A42C5D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C478F0-9876-754C-AF56-8ECD529E15DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1120" windowWidth="27240" windowHeight="16440" xr2:uid="{6B62B656-80E0-3846-A5DE-87765A67B4C1}"/>
+    <workbookView xWindow="2400" yWindow="1120" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{6B62B656-80E0-3846-A5DE-87765A67B4C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Duration_road" sheetId="1" r:id="rId1"/>
+    <sheet name="Distance_road" sheetId="1" r:id="rId1"/>
+    <sheet name="Duration_road" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="36">
   <si>
     <t>DME</t>
   </si>
@@ -126,13 +127,28 @@
   </si>
   <si>
     <t xml:space="preserve"> 131.874</t>
+  </si>
+  <si>
+    <t>30.3141</t>
+  </si>
+  <si>
+    <t>82.9346</t>
+  </si>
+  <si>
+    <t>104.296</t>
+  </si>
+  <si>
+    <t>49.1221</t>
+  </si>
+  <si>
+    <t>131.874</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +174,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -190,6 +213,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82396359-A6AF-0A44-9CB5-5264AD9DD775}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:N1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,4 +1056,566 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0BC8C7-BFC7-854B-9355-A19F828B41EC}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>12700000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>620000</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1300000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5600000</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1600000</v>
+      </c>
+      <c r="L6" s="6">
+        <v>12700000</v>
+      </c>
+      <c r="M6" s="6">
+        <v>12700000</v>
+      </c>
+      <c r="N6" s="6">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6">
+        <v>12700000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6">
+        <v>620000</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1300000</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5600000</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1600000</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12700000</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6">
+        <v>12700000</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6">
+        <v>600000</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>